--- a/chapter5/input/データ再結合前のデータサンプル.xlsx
+++ b/chapter5/input/データ再結合前のデータサンプル.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\副業関連\独立\workdir\practical-mi-guide\chapter5\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD44C7DF-3866-4B49-A7B0-CB1DB82B07A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAECC11-78EF-4C85-B5BB-EA48A9B77898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="5260" windowWidth="31820" windowHeight="14230" activeTab="5" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
+    <workbookView xWindow="4860" yWindow="4860" windowWidth="28800" windowHeight="15410" activeTab="5" xr2:uid="{DBCA48D4-3B36-453F-8532-6E5020BBCB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="処方" sheetId="2" r:id="rId1"/>
@@ -1177,11 +1172,11 @@
     <t>32－38</t>
   </si>
   <si>
-    <t>耐擦過性(n10</t>
+    <t>PP_033</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PP_033</t>
+    <t>耐擦過性</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1449,22 +1444,22 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,10 +1474,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,10 +1489,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,22 +1501,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,34 +1534,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1578,10 +1573,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3709,6 +3704,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4613,6 +4609,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5562,6 +5559,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6455,7 +6453,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>68</v>
@@ -6483,6 +6481,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7087,6 +7086,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7094,7 +7094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6D764-B78F-42A5-9BE9-443EEA628487}">
   <dimension ref="B4:R39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7160,7 +7162,7 @@
         <v>278</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.55000000000000004">
@@ -8948,5 +8950,6 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>